--- a/documentation/acheter.xlsx
+++ b/documentation/acheter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Identifiant + Titre</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>je l'url du site sur mon navigateur web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le site s'affiche </t>
   </si>
 </sst>
 </file>
@@ -620,7 +626,7 @@
   <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,9 +688,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
